--- a/data/avg_retail_fuel_prices_cleaned.xlsx
+++ b/data/avg_retail_fuel_prices_cleaned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohit/Documents/Senior Year/ENERES 131/Final Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b16ca683cd57ce49/Berkeley/year4/semester1/eneres131/evprediction/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7490CCFA-5B11-B64F-AB20-F09FCF929FC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{7490CCFA-5B11-B64F-AB20-F09FCF929FC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{784726EF-B615-6644-BF38-DD9938400B09}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28780" windowHeight="16120" tabRatio="659" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2420" yWindow="500" windowWidth="38280" windowHeight="28300" tabRatio="659" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Average Retail Fuel Prices" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,17 @@
     <sheet name="Electricity" sheetId="5" state="hidden" r:id="rId3"/>
     <sheet name="Conversion Factors" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="28">
   <si>
     <t>Survey Start Date</t>
   </si>
@@ -1299,8 +1308,8 @@
   </sheetPr>
   <dimension ref="A1:AW108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4609,8 +4618,8 @@
       <c r="AW48" s="25"/>
     </row>
     <row r="49" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A49" s="61" t="s">
-        <v>21</v>
+      <c r="A49" s="61">
+        <v>41821</v>
       </c>
       <c r="B49" s="65">
         <v>3.7</v>
